--- a/2022年度/行事/⑦定期総会/冊子/①表紙～P11/表紙裏、P1～P11.xlsx
+++ b/2022年度/行事/⑦定期総会/冊子/①表紙～P11/表紙裏、P1～P11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\2022年度\行事\⑦定期総会\冊子\①表紙～P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB818D94-7B12-4F55-B050-35E424AB2344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592ACA8-62BA-4D80-BE03-84073AA4CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙裏" sheetId="21" r:id="rId1"/>
@@ -28,10 +28,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'P10'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'P11'!$A$1:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'P11'!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'P2'!$A$1:$F$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$L$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'P4'!$A$1:$B$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P4'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'P5'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'P6'!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'P7'!$A$1:$D$36</definedName>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'P9'!$A$1:$E$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙裏!$B$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'P2'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'P3'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'P3'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,6 +105,41 @@
   </authors>
   <commentList>
     <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>期</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>首</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>残高</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{8CB10FAC-42D5-4D6E-B066-DD8B9AF8B12B}">
       <text>
         <r>
           <rPr>
@@ -289,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="344">
   <si>
     <t>日　　付</t>
     <rPh sb="0" eb="1">
@@ -1918,25 +1953,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>市消防団10副分団長</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>ショウボウダン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブンダン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>４３８－３７４０</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2572,14 +2588,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>クリーン船橋
-５３０推進員</t>
-    <rPh sb="4" eb="6">
-      <t>フナバシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>大竹　哲朗</t>
     <rPh sb="0" eb="2">
       <t>オオタケ</t>
@@ -2737,25 +2745,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和３年度　　一般会計報告</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>防災備蓄費</t>
     <rPh sb="0" eb="5">
       <t>ボウサイビチクヒ</t>
@@ -2773,74 +2762,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>補助金終了につき</t>
-    <rPh sb="0" eb="3">
-      <t>ホジョキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和3年4月～
-令和4年3月</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和３年度　　会館会計報告</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和3年度　　会計実績統括　</t>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウカツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>令和4年度　　事業計画（案）</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
@@ -3569,25 +3490,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和４年3月31日現在</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>５頁………一般会計報告</t>
     <rPh sb="1" eb="2">
       <t>ペイジ</t>
@@ -3678,537 +3580,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>夏祭り</t>
-  </si>
-  <si>
-    <t>防災</t>
-  </si>
-  <si>
-    <t>大掃除</t>
-  </si>
-  <si>
-    <t>ゴミ</t>
-  </si>
-  <si>
-    <t>防犯灯</t>
-  </si>
-  <si>
-    <t>渋滞</t>
-  </si>
-  <si>
-    <t>全体</t>
-  </si>
-  <si>
-    <t>9-1</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>1.夏祭り、敬老会、体育レクレーション大会などの諸行事の活動</t>
-  </si>
-  <si>
-    <t>2.社会福祉協議会、金杉友の会等と連携し、町会員の福利厚生の向上</t>
-  </si>
-  <si>
-    <t>4.夏と年末の町内大掃除活動、町内の美化と衛生向上活動</t>
-  </si>
-  <si>
-    <t>5.生活ゴミの廃棄など、ゴミステーションのスムーズな運営</t>
-  </si>
-  <si>
-    <t>6.防犯灯の増設をすすめ、町内の防犯と事故防止の活動</t>
-  </si>
-  <si>
-    <t>7.町内道路の交通標識やミラー、信号等、利用者の設置要望実現。</t>
-  </si>
-  <si>
-    <t>8.地域住民の活動拠点である金杉会館の保全とさらなる有効活用。</t>
-  </si>
-  <si>
-    <t>9.地元警察・駐在所と連携し、町内の安全確保と犯罪予防。</t>
-  </si>
-  <si>
-    <t>10.船橋駅までのバス道路の渋滞緩和など自治体に働きかけ。</t>
-  </si>
-  <si>
-    <t>Q1. 町内会に活動に期待するものに関して解答欄に〇をつけてください</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>A1.回答結果</t>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問１</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問２</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問３</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問４</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問５</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問６</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問７</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問８</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問９</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>問１０</t>
-    <rPh sb="0" eb="1">
-      <t>トイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>福利
-厚生</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>交通
-標識</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金杉
-会館</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>回答数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>安全</t>
-    <rPh sb="0" eb="2">
-      <t>アンゼン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全体として回答傾向は、防犯灯や安全に関する期待値が高い状態です。今後も防犯へのけい藻や安心安全な生活の向上を努めていきます。一方、町会のイベント、活動や金杉会館の利用などに関しては期待値が低いので、今後の課題だと考えておりますので改善していきます。</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイコウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ボウハントウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アンゼン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>キタイチ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>イッポウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>チョウカイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="76" eb="80">
-      <t>カナスギカイカン</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="90" eb="93">
-      <t>キタイチ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金杉十字路より、船橋安孫子線への左折渋滞緩和などを、自治体に働きかけてほしい。</t>
-  </si>
-  <si>
-    <t>３．災害への備え、に関して「飲料水の確保と分配」が必要と思われます。災害の種類と規模（期間）の程度にもよりますが、船橋市としての備えの情報を町会員に知らせてください</t>
-  </si>
-  <si>
-    <t>2班</t>
-  </si>
-  <si>
-    <t>「８．金杉会館のさらなる有効活用」を強く要望いたします。異世代間の交流。サークルやサロン、コミュニケの場所としてほしい。</t>
-  </si>
-  <si>
-    <t>こんな時期なので、キチンと経費の見直しをして下さい。無駄が多すぎる。</t>
-  </si>
-  <si>
-    <t>3班</t>
-  </si>
-  <si>
-    <t>船橋駅から小室行きのバスの遅れがひどい。朝、夕（小室→船橋）の本数を増やしてほしい。</t>
-  </si>
-  <si>
-    <t>7班</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>町会のゴミステーションの新規購入に補助をお願いします。金杉会館のゴミステーションがとても汚い。皆が集まる場所なのでちゃんとしたゴミステーションの補助を考慮してほしい。</t>
-  </si>
-  <si>
-    <t>会長・副会長・班長の負担を少なくするために、</t>
-  </si>
-  <si>
-    <t>夏祭り、敬老会、体育レクレーションは廃止してほしいです。</t>
-  </si>
-  <si>
-    <t>9－1班</t>
-  </si>
-  <si>
-    <t>生活道路に面する土地の所有者に対して草刈などの保全や管理などをお願いしてほしい。</t>
-  </si>
-  <si>
-    <t>〒ポストを近くに、作る事。</t>
-  </si>
-  <si>
-    <t>9－2班</t>
-  </si>
-  <si>
-    <t>７．町内道路の件で金杉神社から金杉十字路までの歩行者道はとても歩きづらいです（市役所に話に行こうと思いました。）雨の日は左側の雑草がひどく、右側の道路がボコボコのため必ず車から雨水（ドロ水）を全身にあびます。夏は雑草、自転車から歩行者の道が狭く、とても、とても歩きづらいです。こんな歩行者の道があることにとても町内に住んでいる者として悲しいです。</t>
-  </si>
-  <si>
-    <t>船橋駅まで行くのに時間がかかる。道路整備</t>
-  </si>
-  <si>
-    <t>１の諸行事は班長になった時の負担が大きいです。仕事をしている身としては、休みをとらざるを得ない状況ですので、辛いです。</t>
-  </si>
-  <si>
-    <t>11班</t>
-  </si>
-  <si>
-    <t>行事の見直しが必要ではないかと思います。体育レクレーションをなくして、高齢者も参加して楽しめるものにするとか….。</t>
-  </si>
-  <si>
-    <t>船橋ヘリポート（AIROS）の音がうるさい。夜６～８時、在宅時、気になる時ある。</t>
-  </si>
-  <si>
-    <t>10班</t>
-  </si>
-  <si>
-    <t>会館廻りの草刈等</t>
-  </si>
-  <si>
-    <t>8班</t>
-  </si>
-  <si>
-    <t>大雨が降ると前の道が水びたしになり車が通れなかったりするので水路を大きくするなどをしてほしい。</t>
-  </si>
-  <si>
-    <t>４班</t>
-  </si>
-  <si>
-    <t>ゴミステーションのブルーシートは年寄りには重たいので、黄色（カラスの嫌いな色）のネットにするなど、考えてもらいたい。</t>
-  </si>
-  <si>
-    <t>ご苦労さまです。</t>
-  </si>
-  <si>
-    <r>
-      <t>Q2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他、要望やコメントがあれば以下に記入してください。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>町内会費の返却はないのですか？イベントを何もしていないのに高すぎると思います。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>今後、さらに高齢化が進み、高齢者向けの世帯が増えた時の町会の運営をどう維持していくのか。またどう関わってもらうのか。（役員の選出や班長の輪番など）
-災害についての備えをどう考えているのか。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・金杉会館の清掃、ごくろう様でした。少しは、変わった様に感じます。
-・ゴミステーションの件ですが時々カラス、猫のいたづら後があります。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金杉会館のゴミステーションがカラス、猫のいたづら後がありきたないです。
-ゴミ出す曜日でないのに出している方もいました。</t>
-    <rPh sb="24" eb="25">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・イチョウの樹の落葉が毎年大変なので何とかして欲しい。
-・会館のカビの臭いがヒドいです。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記５，ゴミステーションの使用法、整理、整頓の徹底を！！
-上記８．使用者の駐車場管理整頓</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>いつもありがとうございます。グループホームでも何か役立つことがありましたらお申し付けください。地域の防災訓練がありましたら、参加できるご利用者様も参加させて頂けたら幸いです。その際に高齢者福祉施設なので避難誘導時スタッフだけでは人手が足りないため、地域住民の方々のご協力をお願いさせていただく場やパンフレット等回覧版で入れさせて頂けたら有難く思っております。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5班</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>避難所についていざという時に高根小までは行けません。良い考えは（場所）はないものですか。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ゴミの袋を配布して欲しい。
-カラスネットを買って欲しい。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コロナ時はタムロしてソージは個々でする、さけるべき。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コロナでも、地域の老若男女での交流を深めてほしい。コロナを怖れてばかりいても、今後も拡大するので、仕方ない。Withコロナ。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コロナ禍で計画や実施が難しい中。ご尽力いただき、ありがとうございます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１．金杉会館のメンテナンス、外壁と内部床フローリング等、修理及ワックスがけ。
-２．銀杏の木の枝切り（近隣の方の落葉の清掃、困難です！）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（気になる点）
-冠水マップでの三丁目（北八津川）に対する事。川の上流の開発で超える水量で船取線が堤防になり池の状態に成るのでは？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>金杉町内に居住しているのに町会に入っていない家族（人）が数人いると聞いています。町会員が全員が入らないといけないと思います。駅周辺等は商店町があるので町会は別だと思います。社会福祉、災害復旧（火災、地震、雨）時の復旧。生活のゴミ出し防犯灯等は町会の助勢がなければ生活が出来ない事から必要と思います。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>今後、皆様のコメントを反映できるように町会活動を改善していきたいと思います。</t>
-    <rPh sb="0" eb="2">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナサマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>チョウカイカツドウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アンケート集計結果（その１）</t>
-    <rPh sb="5" eb="7">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>災害への備え。地元消防団と連携し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="游明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>た</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>防災訓練や防災知識の普及</t>
-    </r>
-  </si>
-  <si>
-    <t>令和３年度の金杉町会活動に関してのアンケート集計結果を報告いたします。</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カナスギ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>A2.回答</t>
-    <rPh sb="3" eb="5">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>令和３年度金杉町会定期総会、第1回班長会</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
@@ -4240,16 +3611,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アンケート集計結果（その2）</t>
-    <rPh sb="5" eb="7">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>議案(2)令和４年度事業計画案、一般・会館会計予算案</t>
     <rPh sb="0" eb="2">
       <t>ギアン</t>
@@ -4624,10 +3985,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>米井　廣実</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>金杉３－１５－１</t>
   </si>
   <si>
@@ -4665,10 +4022,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>横尾　保嗣</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>令和５年 度　　町 会 役 員　　名 簿</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
@@ -4696,6 +4049,171 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>ボ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>米井　美栄子</t>
+    <rPh sb="3" eb="6">
+      <t>ミエコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>市消防団10分団長</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ショウボウダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンダン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>村越　恒規</t>
+    <rPh sb="0" eb="2">
+      <t>ムラコシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４９０－８８３０</t>
+  </si>
+  <si>
+    <t>令和４年度　　一般会計報告</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年3月31日現在</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和4年4月～
+令和5年3月</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和5年3月31日現在</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和４年度　　会館会計報告</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和４年度　　会計実績統括　</t>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夏見台4－19－4-7-10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリーン推進</t>
+    <rPh sb="4" eb="6">
+      <t>スイシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4708,7 +4226,7 @@
     <numFmt numFmtId="176" formatCode="#,##0;&quot;△ &quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5005,60 +4523,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Century"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="游明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游明朝"/>
+      <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -5986,7 +5453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45">
       <alignment vertical="center"/>
@@ -6268,9 +5735,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="33" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -6414,60 +5878,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6483,36 +5919,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6559,16 +5965,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -6631,85 +6046,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10257" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF2E477-AA76-DCED-B064-C42FBA053AB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="11186" t="32997" r="26450" b="10480"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="2575560"/>
-          <a:ext cx="6286500" cy="3436620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7035,273 +6371,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="134"/>
-    <col min="2" max="2" width="12.88671875" style="134" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="134" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="134"/>
+    <col min="1" max="1" width="9" style="133"/>
+    <col min="2" max="2" width="12.875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="38.25" style="133" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136" t="s">
+    <row r="1" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="137" t="s">
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="137" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+    </row>
+    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="136" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="136" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="136" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="136" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="136" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="137" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="137" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="137" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="137" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-    </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="137" t="s">
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-    </row>
-    <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="137" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="136" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="137" t="s">
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="137" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="138" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A19" s="135"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A21" s="135"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.3779527559055118" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7313,36 +6649,36 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E36"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
     <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E2" s="61"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -7350,7 +6686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
@@ -7364,10 +6700,10 @@
         <v>77</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>16</v>
       </c>
@@ -7383,7 +6719,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
@@ -7399,7 +6735,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>18</v>
       </c>
@@ -7414,10 +6750,10 @@
         <v>-400000</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
         <v>20</v>
       </c>
@@ -7433,7 +6769,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>21</v>
       </c>
@@ -7449,7 +6785,7 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -7460,7 +6796,7 @@
       <c r="E11" s="37"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:10" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
@@ -7478,20 +6814,20 @@
       </c>
       <c r="E12" s="81"/>
     </row>
-    <row r="13" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
     </row>
-    <row r="14" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
@@ -7508,7 +6844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
         <v>34</v>
       </c>
@@ -7523,10 +6859,10 @@
         <v>-400000</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
         <v>35</v>
       </c>
@@ -7542,7 +6878,7 @@
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>36</v>
       </c>
@@ -7558,7 +6894,7 @@
       </c>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35" t="s">
         <v>37</v>
       </c>
@@ -7574,7 +6910,7 @@
       </c>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35" t="s">
         <v>38</v>
       </c>
@@ -7590,7 +6926,7 @@
       </c>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -7606,7 +6942,7 @@
       </c>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
         <v>40</v>
       </c>
@@ -7622,7 +6958,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="35" t="s">
         <v>41</v>
       </c>
@@ -7638,7 +6974,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="35" t="s">
         <v>42</v>
       </c>
@@ -7654,9 +6990,9 @@
       </c>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="51">
         <v>500000</v>
@@ -7670,7 +7006,7 @@
       </c>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
@@ -7686,7 +7022,7 @@
       </c>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="35" t="s">
         <v>44</v>
       </c>
@@ -7702,7 +7038,7 @@
       </c>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="35" t="s">
         <v>45</v>
       </c>
@@ -7718,7 +7054,7 @@
       </c>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="35" t="s">
         <v>46</v>
       </c>
@@ -7734,7 +7070,7 @@
       </c>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:9" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>47</v>
       </c>
@@ -7750,7 +7086,7 @@
       </c>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38" t="s">
         <v>48</v>
       </c>
@@ -7767,9 +7103,9 @@
         <v>-380000</v>
       </c>
       <c r="E34" s="58"/>
-      <c r="H34" s="157"/>
-    </row>
-    <row r="35" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="156"/>
+    </row>
+    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="69" t="s">
         <v>49</v>
       </c>
@@ -7784,9 +7120,9 @@
         <v>193441</v>
       </c>
       <c r="E35" s="59"/>
-      <c r="I35" s="158"/>
-    </row>
-    <row r="36" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="157"/>
+    </row>
+    <row r="36" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="69" t="s">
         <v>50</v>
       </c>
@@ -7824,44 +7160,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -7869,7 +7205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>33</v>
@@ -7884,25 +7220,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="17">
         <f>'P6'!B30</f>
-        <v>489903</v>
+        <v>522677</v>
       </c>
       <c r="C8" s="17">
         <f>'P6'!C8</f>
-        <v>538034</v>
+        <v>489903</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" ref="D8:D13" si="0">SUM(B8-C8)</f>
-        <v>-48131</v>
+        <v>32774</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
@@ -7919,7 +7255,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -7936,7 +7272,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>53</v>
       </c>
@@ -7945,17 +7281,17 @@
       </c>
       <c r="C11" s="17">
         <f>'P6'!C11</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -7972,7 +7308,7 @@
       </c>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7982,34 +7318,34 @@
       </c>
       <c r="E13" s="60"/>
     </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="20">
         <f>SUM(B8:B12)</f>
-        <v>939903</v>
+        <v>972677</v>
       </c>
       <c r="C14" s="20">
         <f>SUM(C8:C13)</f>
-        <v>1028034</v>
+        <v>939903</v>
       </c>
       <c r="D14" s="20">
         <f>SUM(D8:D13)</f>
-        <v>-88131</v>
+        <v>32774</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>33</v>
@@ -8024,7 +7360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
@@ -8041,7 +7377,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
@@ -8058,7 +7394,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
@@ -8075,7 +7411,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>57</v>
       </c>
@@ -8092,7 +7428,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
@@ -8109,7 +7445,7 @@
       </c>
       <c r="E25" s="48"/>
     </row>
-    <row r="26" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>59</v>
       </c>
@@ -8126,7 +7462,7 @@
       </c>
       <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>60</v>
       </c>
@@ -8143,14 +7479,14 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="64"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
@@ -8168,7 +7504,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
@@ -8177,15 +7513,15 @@
       </c>
       <c r="C30" s="17">
         <f>C8</f>
-        <v>538034</v>
+        <v>489903</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(B30-C30)</f>
-        <v>12872</v>
+        <v>61003</v>
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
@@ -8195,15 +7531,15 @@
       </c>
       <c r="C31" s="18">
         <f>SUM(C29+C30)</f>
-        <v>928034</v>
+        <v>879903</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(D29+D30)</f>
-        <v>12872</v>
+        <v>61003</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="75"/>
     </row>
   </sheetData>
@@ -8227,37 +7563,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="83" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="83" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="83" customWidth="1"/>
     <col min="4" max="4" width="25" style="83" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" style="83" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="83" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="83" customWidth="1"/>
     <col min="7" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="213" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="192" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
       <c r="F1" s="84"/>
       <c r="G1" s="94">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -8266,699 +7602,682 @@
       <c r="F2" s="84"/>
       <c r="G2" s="93"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="84"/>
       <c r="G3" s="92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="168" t="s">
-        <v>418</v>
+        <v>324</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>321</v>
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>415</v>
+        <v>318</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="E5" s="168" t="s">
-        <v>417</v>
+        <v>319</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>320</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="101" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
-        <v>148</v>
-      </c>
       <c r="B6" s="86" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="168" t="s">
-        <v>377</v>
+        <v>279</v>
+      </c>
+      <c r="E6" s="198" t="s">
+        <v>280</v>
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+      <c r="E7" s="199" t="s">
+        <v>180</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>201</v>
+        <v>193</v>
+      </c>
+      <c r="E8" s="200" t="s">
+        <v>194</v>
       </c>
       <c r="F8" s="84"/>
       <c r="G8" s="89"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="89"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>390</v>
+        <v>293</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="89"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>391</v>
+        <v>294</v>
       </c>
       <c r="E11" s="113"/>
       <c r="F11" s="84"/>
       <c r="G11" s="89"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>392</v>
+        <v>295</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>393</v>
+        <v>296</v>
       </c>
       <c r="E12" s="113"/>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
       <c r="E13" s="113" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>397</v>
+        <v>300</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>399</v>
+        <v>302</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="E15" s="113" t="s">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="E16" s="113" t="s">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="101" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="C17" s="110" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="113" t="s">
-        <v>424</v>
+        <v>327</v>
+      </c>
+      <c r="E17" s="200" t="s">
+        <v>326</v>
       </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="E18" s="113" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="C19" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="E19" s="113" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="84"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>130</v>
-      </c>
       <c r="D20" s="87" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="E20" s="113"/>
       <c r="F20" s="84"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="219" t="s">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="196" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="86" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="84"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="220"/>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="197"/>
       <c r="B22" s="86" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F22" s="84"/>
       <c r="I22" s="103"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="140" t="s">
-        <v>428</v>
-      </c>
-      <c r="C23" s="141" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="142" t="s">
+      <c r="B23" s="139" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="169" t="s">
-        <v>163</v>
-      </c>
       <c r="F23" s="84"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="214" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="216"/>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="195"/>
       <c r="F24" s="84"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="84"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>378</v>
+        <v>281</v>
       </c>
       <c r="E26" s="113" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="156"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="155"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="E27" s="103" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="156"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="155"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="86" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="156"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="155"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="86" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="139"/>
-      <c r="G29" s="156"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="211" t="s">
-        <v>181</v>
+      <c r="F29" s="138"/>
+      <c r="G29" s="155"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="190" t="s">
+        <v>179</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="103" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="84"/>
-      <c r="G30" s="156"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="211"/>
+      <c r="G30" s="155"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="190"/>
       <c r="B31" s="86" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="103" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="84"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="211"/>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="190"/>
       <c r="B32" s="86" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="84"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="202" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="84"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="84"/>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="217" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>411</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="E33" s="168" t="s">
-        <v>417</v>
-      </c>
-      <c r="F33" s="84"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="218"/>
-      <c r="B34" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>376</v>
-      </c>
-      <c r="E34" s="168" t="s">
-        <v>377</v>
+      <c r="B34" s="87" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>203</v>
       </c>
       <c r="F34" s="84"/>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="113" t="s">
-        <v>210</v>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="103" t="s">
+        <v>107</v>
       </c>
       <c r="F35" s="84"/>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="153" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>111</v>
+        <v>333</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>334</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="E36" s="103" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="F36" s="84"/>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="154" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="155" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="155" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>203</v>
-      </c>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="190" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="191"/>
+      <c r="C37" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="186"/>
+      <c r="E37" s="187"/>
       <c r="F37" s="84"/>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="211" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="212"/>
-      <c r="C38" s="207" t="s">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="107"/>
+      <c r="C38" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
       <c r="F38" s="84"/>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="209"/>
-      <c r="E39" s="210"/>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="84"/>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="85"/>
       <c r="F40" s="84"/>
     </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="85"/>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="84"/>
     </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="84"/>
     </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="84"/>
     </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="84"/>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="84"/>
     </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="84"/>
     </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F47" s="84"/>
     </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="84"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
@@ -8980,98 +8299,98 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="7.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="25.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="25.5" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.2"/>
+    <row r="33" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="34" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="35" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="36" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="37" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="38" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="39" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="40" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="41" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="42" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="43" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="44" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
+    <row r="45" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9092,651 +8411,651 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="7" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="100" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="100" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="100" customWidth="1"/>
-    <col min="8" max="10" width="5.21875" style="100" customWidth="1"/>
-    <col min="11" max="11" width="42.77734375" style="100" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="100" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="100" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="100" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="117" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="100" customWidth="1"/>
+    <col min="8" max="10" width="5.25" style="100" customWidth="1"/>
+    <col min="11" max="11" width="42.75" style="100" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="100" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="100" customWidth="1"/>
     <col min="14" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="168" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="99"/>
     </row>
-    <row r="3" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="189" t="s">
+    <row r="3" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="190"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="147" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="161" t="s">
+      <c r="F3" s="160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="162" t="s">
+    <row r="4" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="163" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="163" t="s">
+      <c r="B4" s="162" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="164">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F4" s="165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="169" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="121">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F5" s="142" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="170"/>
+      <c r="B6" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="143" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="124">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="171"/>
+      <c r="B7" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="128">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="121">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="173"/>
+      <c r="B9" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="143" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="124">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="174"/>
+      <c r="B10" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="172" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="164" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="165">
+      <c r="B11" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="121">
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="142" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="173"/>
+      <c r="B12" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="124">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="173"/>
+      <c r="B13" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="124">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="174"/>
+      <c r="B14" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="121">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="173"/>
+      <c r="B16" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="143" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="124">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="174"/>
+      <c r="B17" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F17" s="129" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="148">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F18" s="160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="175" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="121">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F4" s="166" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="192" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="120" t="s">
+      <c r="F19" s="151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="176"/>
+      <c r="B20" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="124">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="176"/>
+      <c r="B21" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="124">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="177"/>
+      <c r="B22" s="126" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="128">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="148">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23" s="149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="175" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="121">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="176"/>
+      <c r="B25" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="124">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="177"/>
+      <c r="B26" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="128">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="98"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="122">
+      <c r="B27" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="121">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="98"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="176"/>
+      <c r="B28" s="122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="124">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F5" s="143" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="193"/>
-      <c r="B6" s="123" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="123" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="125">
+      <c r="F28" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="176"/>
+      <c r="B29" s="122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="143" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="124">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F29" s="131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="177"/>
+      <c r="B30" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="128">
         <v>0.625</v>
       </c>
-      <c r="F6" s="126" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="194"/>
-      <c r="B7" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="146" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="129">
-        <v>0.375</v>
-      </c>
-      <c r="F7" s="130" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="195" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="145" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="122">
+      <c r="F30" s="132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="147" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="148">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F8" s="143" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
-      <c r="B9" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="144" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="125">
+      <c r="F31" s="149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="148">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F9" s="126" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="197"/>
-      <c r="B10" s="127" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="129">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="130" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="195" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="122">
-        <v>0.375</v>
-      </c>
-      <c r="F11" s="143" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="196"/>
-      <c r="B12" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="144" t="s">
+      <c r="F32" s="149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="125">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F12" s="126" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
-      <c r="B13" s="123" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="125">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="197"/>
-      <c r="B14" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="129">
-        <v>0.4375</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="195" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="122">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F15" s="143" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="196"/>
-      <c r="B16" s="123" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="125">
+      <c r="D33" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="121">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F16" s="126" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="197"/>
-      <c r="B17" s="127" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" s="129">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F17" s="130" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="159" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="160" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="149">
+      <c r="F33" s="130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="177"/>
+      <c r="B34" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="128">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F18" s="161" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="186" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="151" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="122">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F19" s="152" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="187"/>
-      <c r="B20" s="123" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="125">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F20" s="132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="187"/>
-      <c r="B21" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="125">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F21" s="132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="127" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="129">
-        <v>0.25</v>
-      </c>
-      <c r="F22" s="133" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" s="147" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="149">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F23" s="150" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="186" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="122">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F24" s="131" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="187"/>
-      <c r="B25" s="123" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="123" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="125">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F25" s="132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
-      <c r="B26" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="129">
-        <v>0.375</v>
-      </c>
-      <c r="F26" s="133" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="98"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="121" t="s">
-        <v>226</v>
-      </c>
-      <c r="E27" s="122">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F27" s="131" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="98"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="187"/>
-      <c r="B28" s="123" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="125">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F28" s="132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="187"/>
-      <c r="B29" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="125">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F29" s="132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
-      <c r="B30" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="128" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="129">
-        <v>0.625</v>
-      </c>
-      <c r="F30" s="133" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="149">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F31" s="150" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="147" t="s">
-        <v>230</v>
-      </c>
-      <c r="D32" s="148" t="s">
-        <v>249</v>
-      </c>
-      <c r="E32" s="149">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F32" s="150" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="120" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="121" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="122">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F33" s="131" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
-      <c r="B34" s="127" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="129">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F34" s="133" t="s">
-        <v>212</v>
+      <c r="F34" s="132" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9754,952 +9073,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="98" customWidth="1"/>
-    <col min="2" max="3" width="6.6640625" style="98" customWidth="1"/>
-    <col min="4" max="13" width="6.6640625" style="100" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="100"/>
+    <col min="1" max="3" width="9" style="98"/>
+    <col min="4" max="16384" width="9" style="100"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-    </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="182" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-    </row>
-    <row r="4" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="182" t="s">
-        <v>362</v>
-      </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-    </row>
-    <row r="5" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A6" s="198" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
-      <c r="L6" s="198"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A7" s="198" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A8" s="198" t="s">
-        <v>363</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A9" s="198" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A10" s="198" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A11" s="198" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A12" s="198" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A13" s="198" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A14" s="198" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.8" x14ac:dyDescent="0.2">
-      <c r="A15" s="198" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-    </row>
-    <row r="16" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="167"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-    </row>
-    <row r="17" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="171" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="171" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="171" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="171" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="171" t="s">
-        <v>301</v>
-      </c>
-      <c r="F18" s="171" t="s">
-        <v>302</v>
-      </c>
-      <c r="G18" s="171" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="171" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" s="171" t="s">
-        <v>305</v>
-      </c>
-      <c r="J18" s="171" t="s">
-        <v>306</v>
-      </c>
-      <c r="K18" s="171" t="s">
-        <v>307</v>
-      </c>
-      <c r="L18" s="171"/>
-    </row>
-    <row r="19" spans="1:12" s="173" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="174" t="s">
-        <v>308</v>
-      </c>
-      <c r="D19" s="174" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="174" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="174" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="174" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="174" t="s">
-        <v>309</v>
-      </c>
-      <c r="I19" s="174" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" s="174" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="174" t="s">
-        <v>283</v>
-      </c>
-      <c r="L19" s="174" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A20" s="183" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="184">
-        <v>61</v>
-      </c>
-      <c r="C20" s="184">
-        <v>55</v>
-      </c>
-      <c r="D20" s="184">
-        <v>110</v>
-      </c>
-      <c r="E20" s="184">
-        <v>80</v>
-      </c>
-      <c r="F20" s="184">
-        <v>103</v>
-      </c>
-      <c r="G20" s="184">
-        <v>135</v>
-      </c>
-      <c r="H20" s="184">
-        <v>105</v>
-      </c>
-      <c r="I20" s="184">
-        <v>58</v>
-      </c>
-      <c r="J20" s="184">
-        <v>129</v>
-      </c>
-      <c r="K20" s="184">
-        <v>106</v>
-      </c>
-      <c r="L20" s="184">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A21" s="183">
-        <v>1</v>
-      </c>
-      <c r="B21" s="184">
-        <v>2</v>
-      </c>
-      <c r="C21" s="184">
-        <v>3</v>
-      </c>
-      <c r="D21" s="184">
-        <v>9</v>
-      </c>
-      <c r="E21" s="184">
-        <v>8</v>
-      </c>
-      <c r="F21" s="184">
-        <v>5</v>
-      </c>
-      <c r="G21" s="184">
-        <v>11</v>
-      </c>
-      <c r="H21" s="184">
-        <v>13</v>
-      </c>
-      <c r="I21" s="184">
-        <v>4</v>
-      </c>
-      <c r="J21" s="184">
-        <v>11</v>
-      </c>
-      <c r="K21" s="184">
-        <v>8</v>
-      </c>
-      <c r="L21" s="184">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A22" s="183">
-        <v>2</v>
-      </c>
-      <c r="B22" s="184">
-        <v>12</v>
-      </c>
-      <c r="C22" s="184">
-        <v>13</v>
-      </c>
-      <c r="D22" s="184">
-        <v>15</v>
-      </c>
-      <c r="E22" s="184">
-        <v>15</v>
-      </c>
-      <c r="F22" s="184">
-        <v>12</v>
-      </c>
-      <c r="G22" s="184">
-        <v>18</v>
-      </c>
-      <c r="H22" s="184">
-        <v>17</v>
-      </c>
-      <c r="I22" s="184">
-        <v>10</v>
-      </c>
-      <c r="J22" s="184">
-        <v>19</v>
-      </c>
-      <c r="K22" s="184">
-        <v>16</v>
-      </c>
-      <c r="L22" s="184">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A23" s="183">
-        <v>3</v>
-      </c>
-      <c r="B23" s="184">
-        <v>5</v>
-      </c>
-      <c r="C23" s="184">
-        <v>7</v>
-      </c>
-      <c r="D23" s="184">
-        <v>15</v>
-      </c>
-      <c r="E23" s="184">
-        <v>9</v>
-      </c>
-      <c r="F23" s="184">
-        <v>8</v>
-      </c>
-      <c r="G23" s="184">
-        <v>16</v>
-      </c>
-      <c r="H23" s="184">
-        <v>14</v>
-      </c>
-      <c r="I23" s="184">
-        <v>8</v>
-      </c>
-      <c r="J23" s="184">
-        <v>17</v>
-      </c>
-      <c r="K23" s="184">
-        <v>9</v>
-      </c>
-      <c r="L23" s="184">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A24" s="183">
-        <v>4</v>
-      </c>
-      <c r="B24" s="184">
-        <v>10</v>
-      </c>
-      <c r="C24" s="184">
-        <v>5</v>
-      </c>
-      <c r="D24" s="184">
-        <v>9</v>
-      </c>
-      <c r="E24" s="184">
-        <v>3</v>
-      </c>
-      <c r="F24" s="184">
-        <v>14</v>
-      </c>
-      <c r="G24" s="184">
-        <v>9</v>
-      </c>
-      <c r="H24" s="184">
-        <v>7</v>
-      </c>
-      <c r="I24" s="184">
-        <v>5</v>
-      </c>
-      <c r="J24" s="184">
-        <v>8</v>
-      </c>
-      <c r="K24" s="184">
-        <v>13</v>
-      </c>
-      <c r="L24" s="184">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A25" s="183">
-        <v>5</v>
-      </c>
-      <c r="B25" s="184">
-        <v>2</v>
-      </c>
-      <c r="C25" s="184">
-        <v>0</v>
-      </c>
-      <c r="D25" s="184">
-        <v>1</v>
-      </c>
-      <c r="E25" s="184">
-        <v>0</v>
-      </c>
-      <c r="F25" s="184">
-        <v>2</v>
-      </c>
-      <c r="G25" s="184">
-        <v>1</v>
-      </c>
-      <c r="H25" s="184">
-        <v>1</v>
-      </c>
-      <c r="I25" s="184">
-        <v>2</v>
-      </c>
-      <c r="J25" s="184">
-        <v>1</v>
-      </c>
-      <c r="K25" s="184">
-        <v>3</v>
-      </c>
-      <c r="L25" s="184">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A26" s="183">
-        <v>6</v>
-      </c>
-      <c r="B26" s="184">
-        <v>3</v>
-      </c>
-      <c r="C26" s="184">
-        <v>1</v>
-      </c>
-      <c r="D26" s="184">
-        <v>6</v>
-      </c>
-      <c r="E26" s="184">
-        <v>4</v>
-      </c>
-      <c r="F26" s="184">
-        <v>5</v>
-      </c>
-      <c r="G26" s="184">
-        <v>11</v>
-      </c>
-      <c r="H26" s="184">
-        <v>5</v>
-      </c>
-      <c r="I26" s="184">
-        <v>1</v>
-      </c>
-      <c r="J26" s="184">
-        <v>6</v>
-      </c>
-      <c r="K26" s="184">
-        <v>6</v>
-      </c>
-      <c r="L26" s="184">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A27" s="183">
-        <v>7</v>
-      </c>
-      <c r="B27" s="184">
-        <v>2</v>
-      </c>
-      <c r="C27" s="184">
-        <v>4</v>
-      </c>
-      <c r="D27" s="184">
-        <v>9</v>
-      </c>
-      <c r="E27" s="184">
-        <v>4</v>
-      </c>
-      <c r="F27" s="184">
-        <v>5</v>
-      </c>
-      <c r="G27" s="184">
-        <v>9</v>
-      </c>
-      <c r="H27" s="184">
-        <v>5</v>
-      </c>
-      <c r="I27" s="184">
-        <v>5</v>
-      </c>
-      <c r="J27" s="184">
-        <v>12</v>
-      </c>
-      <c r="K27" s="184">
-        <v>5</v>
-      </c>
-      <c r="L27" s="184">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A28" s="183">
-        <v>8</v>
-      </c>
-      <c r="B28" s="184">
-        <v>9</v>
-      </c>
-      <c r="C28" s="184">
-        <v>7</v>
-      </c>
-      <c r="D28" s="184">
-        <v>11</v>
-      </c>
-      <c r="E28" s="184">
-        <v>9</v>
-      </c>
-      <c r="F28" s="184">
-        <v>11</v>
-      </c>
-      <c r="G28" s="184">
-        <v>11</v>
-      </c>
-      <c r="H28" s="184">
-        <v>10</v>
-      </c>
-      <c r="I28" s="184">
-        <v>8</v>
-      </c>
-      <c r="J28" s="184">
-        <v>11</v>
-      </c>
-      <c r="K28" s="184">
-        <v>10</v>
-      </c>
-      <c r="L28" s="184">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A29" s="183" t="s">
-        <v>285</v>
-      </c>
-      <c r="B29" s="184">
-        <v>3</v>
-      </c>
-      <c r="C29" s="184">
-        <v>2</v>
-      </c>
-      <c r="D29" s="184">
-        <v>7</v>
-      </c>
-      <c r="E29" s="184">
-        <v>5</v>
-      </c>
-      <c r="F29" s="184">
-        <v>10</v>
-      </c>
-      <c r="G29" s="184">
-        <v>8</v>
-      </c>
-      <c r="H29" s="184">
-        <v>8</v>
-      </c>
-      <c r="I29" s="184">
-        <v>4</v>
-      </c>
-      <c r="J29" s="184">
-        <v>7</v>
-      </c>
-      <c r="K29" s="184">
-        <v>9</v>
-      </c>
-      <c r="L29" s="184">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A30" s="183" t="s">
-        <v>286</v>
-      </c>
-      <c r="B30" s="184">
-        <v>2</v>
-      </c>
-      <c r="C30" s="184">
-        <v>2</v>
-      </c>
-      <c r="D30" s="184">
-        <v>12</v>
-      </c>
-      <c r="E30" s="184">
-        <v>2</v>
-      </c>
-      <c r="F30" s="184">
-        <v>13</v>
-      </c>
-      <c r="G30" s="184">
-        <v>14</v>
-      </c>
-      <c r="H30" s="184">
-        <v>6</v>
-      </c>
-      <c r="I30" s="184">
-        <v>1</v>
-      </c>
-      <c r="J30" s="184">
-        <v>9</v>
-      </c>
-      <c r="K30" s="184">
-        <v>12</v>
-      </c>
-      <c r="L30" s="184">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A31" s="183">
-        <v>10</v>
-      </c>
-      <c r="B31" s="184">
-        <v>6</v>
-      </c>
-      <c r="C31" s="184">
-        <v>4</v>
-      </c>
-      <c r="D31" s="184">
-        <v>8</v>
-      </c>
-      <c r="E31" s="184">
-        <v>8</v>
-      </c>
-      <c r="F31" s="184">
-        <v>8</v>
-      </c>
-      <c r="G31" s="184">
-        <v>12</v>
-      </c>
-      <c r="H31" s="184">
-        <v>9</v>
-      </c>
-      <c r="I31" s="184">
-        <v>6</v>
-      </c>
-      <c r="J31" s="184">
-        <v>12</v>
-      </c>
-      <c r="K31" s="184">
-        <v>7</v>
-      </c>
-      <c r="L31" s="184">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A32" s="183">
-        <v>11</v>
-      </c>
-      <c r="B32" s="184">
-        <v>5</v>
-      </c>
-      <c r="C32" s="184">
-        <v>7</v>
-      </c>
-      <c r="D32" s="184">
-        <v>7</v>
-      </c>
-      <c r="E32" s="184">
-        <v>11</v>
-      </c>
-      <c r="F32" s="184">
-        <v>9</v>
-      </c>
-      <c r="G32" s="184">
-        <v>13</v>
-      </c>
-      <c r="H32" s="184">
-        <v>9</v>
-      </c>
-      <c r="I32" s="184">
-        <v>4</v>
-      </c>
-      <c r="J32" s="184">
-        <v>14</v>
-      </c>
-      <c r="K32" s="184">
-        <v>8</v>
-      </c>
-      <c r="L32" s="184">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A33" s="183">
-        <v>12</v>
-      </c>
-      <c r="B33" s="184">
-        <v>0</v>
-      </c>
-      <c r="C33" s="184">
-        <v>0</v>
-      </c>
-      <c r="D33" s="184">
-        <v>1</v>
-      </c>
-      <c r="E33" s="184">
-        <v>2</v>
-      </c>
-      <c r="F33" s="184">
-        <v>1</v>
-      </c>
-      <c r="G33" s="184">
-        <v>2</v>
-      </c>
-      <c r="H33" s="184">
-        <v>1</v>
-      </c>
-      <c r="I33" s="184">
-        <v>0</v>
-      </c>
-      <c r="J33" s="184">
-        <v>2</v>
-      </c>
-      <c r="K33" s="184">
-        <v>0</v>
-      </c>
-      <c r="L33" s="184">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
-      <c r="C34" s="100"/>
-    </row>
-    <row r="35" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="199" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" s="199"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-    </row>
-    <row r="39" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-    </row>
-    <row r="40" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-    </row>
-    <row r="41" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-    </row>
-    <row r="51" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G51" s="98"/>
-    </row>
-    <row r="52" spans="7:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G52" s="98"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" firstPageNumber="2" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="2" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ Ｐ明朝,標準"-3-</oddFooter>
   </headerFooter>
@@ -10711,349 +9100,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="97" style="175" customWidth="1"/>
+    <col min="2" max="2" width="9" style="167"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="100" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A3" s="200" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="200"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A4" s="176" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A6" s="176" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="180" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="181" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="177" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="178" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="177" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="178" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="177" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="178" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="177" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" s="178" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="177" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="178" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="177" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" s="178" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A15" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B15" s="178" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B16" s="178" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A17" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A19" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B19" s="178" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A20" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" s="178" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="178" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="177" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" s="178" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A23" s="177" t="s">
-        <v>321</v>
-      </c>
-      <c r="B23" s="178" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="177" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="178" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="177" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="178" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="177" t="s">
-        <v>338</v>
-      </c>
-      <c r="B26" s="178" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="177" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27" s="178" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A28" s="177" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="178" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="177" t="s">
-        <v>326</v>
-      </c>
-      <c r="B29" s="178" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="177" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="178" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="178" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="178" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A33" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="178" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="178" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="177" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="178" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A36" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B36" s="178" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A37" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B37" s="178" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B38" s="178" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B39" s="178" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="178" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A41" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" s="179" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A42" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B42" s="178" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="177" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" s="178" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A45" s="185" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C-4-</oddFooter>
   </headerFooter>
@@ -11067,48 +9127,48 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
     <col min="6" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="63"/>
     </row>
-    <row r="3" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E5" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -11116,13 +9176,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -11131,15 +9191,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="17">
-        <v>3450047</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3450047</v>
+        <v>3708488</v>
+      </c>
+      <c r="C8" s="51">
+        <v>3708488</v>
       </c>
       <c r="D8" s="18">
         <f>SUM(B8-C8)</f>
@@ -11147,108 +9207,108 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="17">
-        <v>1252600</v>
-      </c>
-      <c r="C9" s="17">
-        <v>1500000</v>
+        <v>1353600</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1400000</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(B9-C9)</f>
-        <v>-247400</v>
+        <v>-46400</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="17">
-        <v>739818</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1800000</v>
+        <v>842212</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1200000</v>
       </c>
       <c r="D10" s="18">
         <f>SUM(B10-C10)</f>
-        <v>-1060182</v>
+        <v>-357788</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
-      <c r="C11" s="17">
-        <v>300000</v>
+      <c r="C11" s="51">
+        <v>200000</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(B11-C11)</f>
-        <v>-300000</v>
+        <v>-200000</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="17">
-        <v>244534</v>
-      </c>
-      <c r="C12" s="17">
+        <v>416975</v>
+      </c>
+      <c r="C12" s="51">
         <v>200000</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(B12-C12)</f>
-        <v>44534</v>
+        <v>216975</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="19"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="21">
         <f>SUM(B8:B13)</f>
-        <v>5686999</v>
+        <v>6321275</v>
       </c>
       <c r="C14" s="21">
         <f>SUM(C8:C13)</f>
-        <v>7250047</v>
+        <v>6708488</v>
       </c>
       <c r="D14" s="20">
         <f>SUM(B14-C14)</f>
-        <v>-1563048</v>
+        <v>-387213</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="J14" s="157"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="156"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -11256,17 +9316,17 @@
         <v>24</v>
       </c>
       <c r="C16" s="17">
-        <v>108780</v>
+        <v>103970</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="17">
-        <v>563416</v>
-      </c>
-      <c r="J16" s="157"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>671411</v>
+      </c>
+      <c r="J16" s="156"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
         <v>102</v>
@@ -11281,13 +9341,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="17">
-        <v>67622</v>
+        <v>64331</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>28</v>
@@ -11296,18 +9356,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -11316,18 +9376,18 @@
       </c>
       <c r="E20" s="17">
         <f>SUM(C16+C17+C18+C19+E16+E17+E18)</f>
-        <v>739818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>842212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
@@ -11344,23 +9404,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="17">
-        <v>241000</v>
+        <v>350000</v>
       </c>
       <c r="C26" s="17">
-        <v>700000</v>
+        <v>300000</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" ref="D26:D40" si="0">SUM(B26-C26)</f>
-        <v>-459000</v>
+        <v>50000</v>
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
@@ -11375,28 +9435,26 @@
         <v>-500000</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="17">
-        <v>0</v>
+        <v>373076</v>
       </c>
       <c r="C28" s="17">
         <v>400000</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>-400000</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-26924</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -11411,44 +9469,44 @@
         <v>-250000</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="17">
-        <v>73508</v>
+        <v>89143</v>
       </c>
       <c r="C30" s="17">
         <v>200000</v>
       </c>
       <c r="D30" s="18">
         <f t="shared" si="0"/>
-        <v>-126492</v>
+        <v>-110857</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="17">
-        <v>229100</v>
+        <v>219900</v>
       </c>
       <c r="C31" s="17">
         <v>300000</v>
       </c>
       <c r="D31" s="18">
         <f t="shared" si="0"/>
-        <v>-70900</v>
+        <v>-80100</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
@@ -11464,27 +9522,27 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="17">
-        <v>426469</v>
+        <v>317017</v>
       </c>
       <c r="C33" s="17">
         <v>35000</v>
       </c>
       <c r="D33" s="18">
         <f t="shared" si="0"/>
-        <v>391469</v>
+        <v>282017</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" s="17">
         <v>0</v>
@@ -11498,65 +9556,65 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" s="17">
-        <v>372604</v>
+        <v>478760</v>
       </c>
       <c r="C35" s="71">
         <v>500000</v>
       </c>
       <c r="D35" s="18">
         <f t="shared" si="0"/>
-        <v>-127396</v>
+        <v>-21240</v>
       </c>
       <c r="E35" s="73"/>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="71">
-        <v>134285</v>
+        <v>169860</v>
       </c>
       <c r="C36" s="71">
         <v>70000</v>
       </c>
       <c r="D36" s="72">
         <f t="shared" si="0"/>
-        <v>64285</v>
+        <v>99860</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="17">
-        <v>36545</v>
+        <v>21846</v>
       </c>
       <c r="C37" s="17">
         <v>100000</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>-63455</v>
+        <v>-78154</v>
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="17">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="C38" s="17">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" si="0"/>
@@ -11564,23 +9622,23 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="17">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="C39" s="17">
         <v>50000</v>
       </c>
       <c r="D39" s="18">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>-10000</v>
       </c>
       <c r="E39" s="46"/>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>47</v>
       </c>
@@ -11596,55 +9654,55 @@
       </c>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="21">
         <f>SUM(B26:B40)</f>
-        <v>1978511</v>
+        <v>2474602</v>
       </c>
       <c r="C41" s="21">
         <f>SUM(C26:C40)</f>
-        <v>3650000</v>
+        <v>3270000</v>
       </c>
       <c r="D41" s="18">
         <f>SUM(B41-C41)</f>
-        <v>-1671489</v>
+        <v>-795398</v>
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="17">
-        <v>3708488</v>
+        <v>3846673</v>
       </c>
       <c r="C42" s="17">
         <v>3200047</v>
       </c>
       <c r="D42" s="18">
         <f>SUM(B42-C42)</f>
-        <v>508441</v>
+        <v>646626</v>
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="17">
         <f>SUM(B41,B42)</f>
-        <v>5686999</v>
+        <v>6321275</v>
       </c>
       <c r="C43" s="17">
         <f>SUM(C41,C42)</f>
-        <v>6850047</v>
+        <v>6470047</v>
       </c>
       <c r="D43" s="18">
         <f>SUM(B43-C43)</f>
-        <v>-1163048</v>
+        <v>-148772</v>
       </c>
       <c r="E43" s="9"/>
     </row>
@@ -11668,44 +9726,44 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E5" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -11713,13 +9771,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -11728,15 +9786,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="17">
-        <v>538034</v>
+        <v>489903</v>
       </c>
       <c r="C8" s="17">
-        <v>538034</v>
+        <v>489903</v>
       </c>
       <c r="D8" s="18">
         <f>SUM(B8-C8)</f>
@@ -11744,25 +9802,25 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="17">
-        <v>109800</v>
+        <v>99000</v>
       </c>
       <c r="C9" s="17">
         <v>250000</v>
       </c>
       <c r="D9" s="18">
         <f>SUM(B9-C9)</f>
-        <v>-140200</v>
+        <v>-151000</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -11777,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>53</v>
       </c>
@@ -11788,69 +9846,67 @@
         <v>0</v>
       </c>
       <c r="C11" s="17">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
         <f>SUM(B11-C11)</f>
-        <v>-40000</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
       </c>
       <c r="D12" s="18">
         <f>SUM(B12-C12)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="19"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="21">
         <f>SUM(B8:B13)</f>
-        <v>847839</v>
+        <v>788907</v>
       </c>
       <c r="C14" s="21">
         <f>SUM(C8:C13)</f>
-        <v>1028034</v>
+        <v>939903</v>
       </c>
       <c r="D14" s="20">
         <f>SUM(B14-C14)</f>
-        <v>-180195</v>
+        <v>-150996</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -11867,23 +9923,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="17">
-        <v>145718</v>
+        <v>171590</v>
       </c>
       <c r="C21" s="17">
         <v>180000</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ref="D21:D27" si="0">SUM(B21-C21)</f>
-        <v>-34282</v>
+        <v>-8410</v>
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
@@ -11899,39 +9955,39 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="17">
-        <v>46500</v>
+        <v>26500</v>
       </c>
       <c r="C23" s="17">
         <v>30000</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
-        <v>16500</v>
+        <v>-3500</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="17">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="C24" s="17">
         <v>40000</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="0"/>
-        <v>-5000</v>
+        <v>-20000</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
@@ -11947,52 +10003,52 @@
       </c>
       <c r="E25" s="48"/>
     </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="17">
-        <v>73959</v>
+        <v>0</v>
       </c>
       <c r="C26" s="17">
         <v>50000</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>23959</v>
+        <v>-50000</v>
       </c>
       <c r="E26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="17">
-        <v>8619</v>
+        <v>0</v>
       </c>
       <c r="C27" s="17">
         <v>10000</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" si="0"/>
-        <v>-1381</v>
+        <v>-10000</v>
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="64"/>
       <c r="C28" s="12"/>
       <c r="D28" s="19"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="21">
         <f>SUM(B21:B28)</f>
-        <v>357936</v>
+        <v>266230</v>
       </c>
       <c r="C29" s="21">
         <f>SUM(C21:C28)</f>
@@ -12000,47 +10056,47 @@
       </c>
       <c r="D29" s="20">
         <f>SUM(B29-C29)</f>
-        <v>-32064</v>
+        <v>-123770</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="I29" s="157"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="156"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="17">
-        <v>489903</v>
+        <v>522677</v>
       </c>
       <c r="C30" s="17">
         <f>C8</f>
-        <v>538034</v>
+        <v>489903</v>
       </c>
       <c r="D30" s="18">
         <f>SUM(B30-C30)</f>
-        <v>-48131</v>
+        <v>32774</v>
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="17">
         <f>SUM(B29,B30)</f>
-        <v>847839</v>
+        <v>788907</v>
       </c>
       <c r="C31" s="17">
         <f>SUM(C29,C30)</f>
-        <v>928034</v>
+        <v>879903</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(B31-C31)</f>
-        <v>-80195</v>
+        <v>-90996</v>
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="75"/>
     </row>
   </sheetData>
@@ -12064,32 +10120,32 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D29"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="1" max="4" width="20.625" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="180" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
@@ -12103,76 +10159,76 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="29">
         <f>'P5'!B14</f>
-        <v>5686999</v>
+        <v>6321275</v>
       </c>
       <c r="C6" s="29">
         <f>'P5'!B41</f>
-        <v>1978511</v>
+        <v>2474602</v>
       </c>
       <c r="D6" s="30">
         <f>SUM(B6-C6)</f>
-        <v>3708488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3846673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="29">
         <f>'P6'!B14</f>
-        <v>847839</v>
+        <v>788907</v>
       </c>
       <c r="C7" s="29">
         <f>'P6'!B29</f>
-        <v>357936</v>
+        <v>266230</v>
       </c>
       <c r="D7" s="79">
         <f>SUM(B7-C7)</f>
-        <v>489903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>522677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="31">
         <f>SUM(B6:B7)</f>
-        <v>6534838</v>
+        <v>7110182</v>
       </c>
       <c r="C8" s="31">
         <f>SUM(C6:C7)</f>
-        <v>2336447</v>
+        <v>2740832</v>
       </c>
       <c r="D8" s="78">
         <f>SUM(B8-C8)</f>
-        <v>4198391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4369350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="82">
         <v>44651</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
         <v>70</v>
       </c>
@@ -12181,88 +10237,88 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="26"/>
     </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="26"/>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="76"/>
       <c r="D27" s="76"/>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="201" t="s">
-        <v>372</v>
-      </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="180" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="182"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24"/>
     </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="77"/>
       <c r="D32" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
@@ -12276,7 +10332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="70" t="s">
         <v>66</v>
       </c>
@@ -12293,13 +10349,13 @@
         <v>3438488</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="32">
         <f>'P10'!B14</f>
-        <v>939903</v>
+        <v>972677</v>
       </c>
       <c r="C35" s="32">
         <f>'P10'!B29</f>
@@ -12307,16 +10363,16 @@
       </c>
       <c r="D35" s="32">
         <f>SUM(B35-C35)</f>
-        <v>549903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>582677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="45">
         <f>SUM(B34:B35)</f>
-        <v>7648391</v>
+        <v>7681165</v>
       </c>
       <c r="C36" s="45">
         <f>SUM(C34:C35)</f>
@@ -12324,7 +10380,7 @@
       </c>
       <c r="D36" s="45">
         <f>SUM(B36-C36)</f>
-        <v>3988391</v>
+        <v>4021165</v>
       </c>
     </row>
   </sheetData>
@@ -12340,7 +10396,6 @@
     <oddFooter>&amp;C
 &amp;"ＭＳ Ｐ明朝,標準"-7-</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12352,323 +10407,323 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C2" s="95"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
     </row>
-    <row r="4" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="74"/>
     </row>
-    <row r="5" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="74"/>
     </row>
-    <row r="6" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="74"/>
       <c r="B6" s="74"/>
     </row>
-    <row r="7" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
     </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
     </row>
-    <row r="9" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="74" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="74"/>
     </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="74" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="74"/>
     </row>
-    <row r="11" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
       <c r="B11" s="74"/>
     </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
     </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
     </row>
-    <row r="14" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="74" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="74"/>
     </row>
-    <row r="15" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="74"/>
     </row>
-    <row r="16" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="74"/>
     </row>
-    <row r="17" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="74" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="74"/>
     </row>
-    <row r="18" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
     </row>
-    <row r="19" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
     </row>
-    <row r="20" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
     </row>
-    <row r="21" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="74" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="74"/>
     </row>
-    <row r="22" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="74" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="74"/>
     </row>
-    <row r="23" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
       <c r="B23" s="74"/>
     </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
     </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
     </row>
-    <row r="26" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="204" t="s">
+    <row r="26" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="205"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-    </row>
-    <row r="27" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B26" s="184"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+    </row>
+    <row r="27" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="74" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="80"/>
     </row>
-    <row r="28" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
       <c r="B28" s="74"/>
     </row>
-    <row r="29" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
     </row>
-    <row r="30" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:11" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="74"/>
     </row>
-    <row r="32" spans="1:11" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
       <c r="B32" s="74"/>
     </row>
-    <row r="33" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
     </row>
-    <row r="34" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
     </row>
-    <row r="35" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="74" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="74"/>
     </row>
-    <row r="36" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="74"/>
       <c r="B36" s="74"/>
     </row>
-    <row r="37" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
     </row>
-    <row r="38" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
     </row>
-    <row r="39" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="74" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="74"/>
     </row>
-    <row r="40" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="74"/>
       <c r="B40" s="74"/>
     </row>
-    <row r="41" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
     </row>
-    <row r="42" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
     </row>
-    <row r="43" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="74" t="s">
         <v>94</v>
       </c>
       <c r="B43" s="74"/>
     </row>
-    <row r="44" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="74"/>
       <c r="B44" s="74"/>
     </row>
-    <row r="45" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
     </row>
-    <row r="46" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
     </row>
-    <row r="47" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="74" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="74"/>
     </row>
-    <row r="48" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="96" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="74"/>
     </row>
-    <row r="49" spans="1:2" s="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="74"/>
       <c r="B49" s="74"/>
     </row>
-    <row r="50" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
     </row>
-    <row r="51" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
     </row>
-    <row r="52" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
     </row>
-    <row r="53" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
     </row>
-    <row r="54" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
     </row>
-    <row r="55" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
     </row>
-    <row r="56" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
     </row>
-    <row r="57" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
     </row>
-    <row r="58" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
     </row>
-    <row r="59" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
     </row>
-    <row r="60" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
     </row>
-    <row r="61" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
     </row>
-    <row r="62" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
     </row>
-    <row r="63" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
     </row>
-    <row r="64" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
     </row>
-    <row r="65" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
     </row>

--- a/2022年度/行事/⑦定期総会/冊子/①表紙～P11/表紙裏、P1～P11.xlsx
+++ b/2022年度/行事/⑦定期総会/冊子/①表紙～P11/表紙裏、P1～P11.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\2022年度\行事\⑦定期総会\冊子\①表紙～P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592ACA8-62BA-4D80-BE03-84073AA4CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546C408-59E7-44F5-9129-AFFE502EB6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙裏" sheetId="21" r:id="rId1"/>
     <sheet name="P1" sheetId="5" r:id="rId2"/>
     <sheet name="P2" sheetId="17" r:id="rId3"/>
-    <sheet name="P3" sheetId="22" r:id="rId4"/>
-    <sheet name="P4" sheetId="23" r:id="rId5"/>
-    <sheet name="P5" sheetId="7" r:id="rId6"/>
-    <sheet name="P6" sheetId="8" r:id="rId7"/>
-    <sheet name="P7" sheetId="9" r:id="rId8"/>
-    <sheet name="P8" sheetId="2" r:id="rId9"/>
-    <sheet name="P9" sheetId="10" r:id="rId10"/>
-    <sheet name="P10" sheetId="11" r:id="rId11"/>
-    <sheet name="P11" sheetId="16" r:id="rId12"/>
+    <sheet name="P3" sheetId="7" r:id="rId4"/>
+    <sheet name="P4" sheetId="8" r:id="rId5"/>
+    <sheet name="P5" sheetId="9" r:id="rId6"/>
+    <sheet name="P6" sheetId="2" r:id="rId7"/>
+    <sheet name="P7" sheetId="10" r:id="rId8"/>
+    <sheet name="P8" sheetId="11" r:id="rId9"/>
+    <sheet name="P9" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'P10'!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'P11'!$A$1:$E$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'P2'!$A$1:$F$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'P4'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'P5'!$A$1:$E$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'P6'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'P7'!$A$1:$D$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'P8'!$A$1:$K$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'P9'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'P2'!$A$1:$F$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'P3'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P4'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'P5'!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'P6'!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'P7'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'P8'!$A$1:$E$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'P9'!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙裏!$B$1:$D$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'P2'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'P3'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -324,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="342">
   <si>
     <t>日　　付</t>
     <rPh sb="0" eb="1">
@@ -2406,10 +2401,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>３日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>９月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -2514,13 +2505,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>９日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -2528,13 +2512,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>１９日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 目　　　  次</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2553,41 +2530,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>１２頁……金杉町会会則</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１６頁……防災部会規約</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１８頁……会館消防計画</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>２０頁……会館利用規則</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>２２頁……会館図面・利用料</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>大竹　哲朗</t>
     <rPh sb="0" eb="2">
       <t>オオタケ</t>
@@ -2683,13 +2625,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>１日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１５日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -2723,28 +2658,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和３年度　　　　事　業　報　告</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>防災備蓄費</t>
     <rPh sb="0" eb="5">
       <t>ボウサイビチクヒ</t>
@@ -2762,47 +2675,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和4年度　　事業計画（案）</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和４年度　　一般会計予算(案)　　</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨサン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>伊藤　晋朗</t>
     <rPh sb="0" eb="2">
       <t>イトウ</t>
@@ -2872,52 +2744,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>防犯灯工事減少</t>
-    <rPh sb="0" eb="3">
-      <t>ボウハントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>補助金削除</t>
-    <rPh sb="0" eb="3">
-      <t>ホジョキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>４３９－７１７０</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和４年４月２４日（日）</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヘイネン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2944,16 +2771,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消防団監査</t>
-    <rPh sb="0" eb="3">
-      <t>ショウボウダン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>530の日</t>
     <rPh sb="4" eb="5">
       <t>ヒ</t>
@@ -3061,22 +2878,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>船橋市生涯スポーツ課会議</t>
-    <rPh sb="0" eb="3">
-      <t>フナバシシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウガイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>夏季大掃除</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -3142,13 +2943,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>書面</t>
-    <rPh sb="0" eb="2">
-      <t>ショメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日</t>
     <rPh sb="0" eb="1">
       <t>ニチ</t>
@@ -3163,27 +2957,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>３０日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>４日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１１日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -3191,13 +2964,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>７日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>７月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -3205,19 +2971,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>金杉会館清掃</t>
-    <rPh sb="0" eb="2">
-      <t>カナスギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>第7回班長会</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -3231,41 +2984,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会計作業</t>
-    <rPh sb="0" eb="2">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第49回衆議院議員総選挙立ち合い</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シュウギイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ギイン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ソウセンキョ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>第8回班長会+交流会+アンケート配布</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -3331,22 +3049,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>有価物回収協力金配布</t>
-    <rPh sb="0" eb="3">
-      <t>ユウカブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>キョウリョクキン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハイフ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>第11回班長会</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -3373,27 +3075,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>１７日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>３１日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１４日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１６日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -3401,13 +3082,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>２３日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>3日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -3448,13 +3122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>１０月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１１月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -3490,55 +3157,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>５頁………一般会計報告</t>
-    <rPh sb="1" eb="2">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>６頁………会館会計報告</t>
-    <rPh sb="1" eb="2">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>７頁………統括と監査結果</t>
-    <rPh sb="1" eb="2">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>８頁………事業計画（案)</t>
-    <rPh sb="1" eb="2">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>９頁………一般会計予算（案）</t>
-    <rPh sb="1" eb="2">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１０頁……会館会計予算（案）</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>１１頁……町会役員名簿</t>
-    <rPh sb="2" eb="3">
-      <t>ペイジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2.町会会長挨拶</t>
     <rPh sb="2" eb="4">
       <t>チョウカイ</t>
@@ -3552,27 +3170,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>２０日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>２５日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>５日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１８日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -3580,87 +3177,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和３年度金杉町会定期総会、第1回班長会</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>カナスギチョウカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソウカイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ハンチョウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>議案(2)令和４年度事業計画案、一般・会館会計予算案</t>
-    <rPh sb="0" eb="2">
-      <t>ギアン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="10" eb="15">
-      <t>ジギョウケイカクアン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヨサン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>議案(3)令和４年度役員選出案</t>
-    <rPh sb="0" eb="2">
-      <t>ギアン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヤクイン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>センシュツアン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>*各議案に関しては書面議決票により議決を行います。</t>
     <rPh sb="1" eb="4">
       <t>カクギアン</t>
@@ -3686,78 +3202,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>議案(1)令和３年度事業報告、一般・会館会計報告</t>
-    <rPh sb="0" eb="2">
-      <t>ギアン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ジギョウホウコク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カイカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和４年度　　会計予算（案）統括</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨサン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウカツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>令和４年度　　会館会計予算(案)</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨサン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>齋藤　浩幸</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4022,37 +3466,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>令和５年 度　　町 会 役 員　　名 簿</t>
-    <rPh sb="0" eb="2">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マチ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ボ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>米井　美栄子</t>
     <rPh sb="3" eb="6">
       <t>ミエコ</t>
@@ -4087,9 +3500,6 @@
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>４９０－８８３０</t>
   </si>
   <si>
     <t>令和４年度　　一般会計報告</t>
@@ -4207,13 +3617,546 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>夏見台4－19－4-7-10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>クリーン推進</t>
     <rPh sb="4" eb="6">
       <t>スイシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年４月１６日（日）</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヘイネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>３頁………一般会計報告</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４頁………会館会計報告</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５頁………統括と監査結果</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>６頁………事業計画（案)</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>７頁………一般会計予算（案）</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>８頁……会館会計予算（案）</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>９頁……町会役員名簿</t>
+    <rPh sb="1" eb="2">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１０頁……金杉町会会則</t>
+    <rPh sb="2" eb="3">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１４頁……防災部会規約</t>
+    <rPh sb="2" eb="3">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１６頁……会館消防計画</t>
+    <rPh sb="2" eb="3">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１８頁……会館利用規則</t>
+    <rPh sb="2" eb="3">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２０頁……会館図面・利用料</t>
+    <rPh sb="2" eb="3">
+      <t>ペイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和４年度　　　　事　業　報　告</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>15日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>29日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１2日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>26日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゴミステーション設置</t>
+    <rPh sb="8" eb="10">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１0日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夏祭り準備</t>
+    <rPh sb="0" eb="2">
+      <t>ナツマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>模擬店買い出し</t>
+    <rPh sb="0" eb="3">
+      <t>モギテン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>21日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>くじ引き買い出し</t>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2７日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夏祭り代替イベント「気分は夏祭り」</t>
+    <rPh sb="0" eb="2">
+      <t>ナツマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナツマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>２９日</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高根・金杉地区連合理事会</t>
+    <rPh sb="0" eb="2">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カナスギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>リジカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社会福祉協議会</t>
+    <rPh sb="0" eb="4">
+      <t>シャカイフクシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キョウギカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金杉２－１－１５</t>
+    <rPh sb="0" eb="2">
+      <t>カナスギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>４３９－２２１１</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年度　　会計予算（案）統括</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年度　　一般会計予算(案)　　</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年度　　会館会計予算(案)</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>議案(1)令和４年度事業報告、一般・会館会計報告</t>
+    <rPh sb="0" eb="2">
+      <t>ギアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ジギョウホウコク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>議案(2)令和５年度事業計画案、一般・会館会計予算案</t>
+    <rPh sb="0" eb="2">
+      <t>ギアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>ジギョウケイカクアン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>議案(3)令和５年度役員選出案</t>
+    <rPh sb="0" eb="2">
+      <t>ギアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクイン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センシュツアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年度　　事業計画（案）</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>令和５年度　　町 会 役 員　　名 簿</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ボ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4648,7 +4591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -5082,36 +5025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -5162,54 +5075,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -5235,45 +5100,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5453,7 +5279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45">
       <alignment vertical="center"/>
@@ -5738,195 +5564,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="42" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="42" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="42" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="42" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="42" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5955,13 +5673,13 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5970,20 +5688,35 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -6046,6 +5779,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>212315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E43FEE6-90C0-57A9-EB7C-4BF345D382D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2854"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2721660"/>
+          <a:ext cx="6233948" cy="3484779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6372,267 +6169,267 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="133"/>
-    <col min="2" max="2" width="12.875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="133" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="133"/>
+    <col min="1" max="1" width="9" style="118"/>
+    <col min="2" max="2" width="12.875" style="118" customWidth="1"/>
+    <col min="3" max="3" width="38.25" style="118" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="121" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="121" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="136" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="121" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="134"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="136" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="121" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="134"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="121" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="134"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="136" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="121" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="121" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="121" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="121" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="122" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="134"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="134"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="134"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6643,930 +6440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="51">
-        <v>3708488</v>
-      </c>
-      <c r="C6" s="51">
-        <v>3450047</v>
-      </c>
-      <c r="D6" s="52">
-        <f t="shared" ref="D6:D12" si="0">SUM(B6-C6)</f>
-        <v>258441</v>
-      </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="51">
-        <v>1400000</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1400000</v>
-      </c>
-      <c r="D7" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="51">
-        <v>1200000</v>
-      </c>
-      <c r="C8" s="51">
-        <v>1600000</v>
-      </c>
-      <c r="D8" s="52">
-        <f t="shared" si="0"/>
-        <v>-400000</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="51">
-        <v>200000</v>
-      </c>
-      <c r="C9" s="51">
-        <v>200000</v>
-      </c>
-      <c r="D9" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="51">
-        <v>200000</v>
-      </c>
-      <c r="C10" s="51">
-        <v>200000</v>
-      </c>
-      <c r="D10" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="54">
-        <f>SUM(B6:B11)</f>
-        <v>6708488</v>
-      </c>
-      <c r="C12" s="54">
-        <f>SUM(C6:C11)</f>
-        <v>6850047</v>
-      </c>
-      <c r="D12" s="54">
-        <f t="shared" si="0"/>
-        <v>-141559</v>
-      </c>
-      <c r="E12" s="81"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="51">
-        <v>300000</v>
-      </c>
-      <c r="C19" s="51">
-        <v>700000</v>
-      </c>
-      <c r="D19" s="52">
-        <f>SUM(B19-C19)</f>
-        <v>-400000</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="51">
-        <v>500000</v>
-      </c>
-      <c r="C20" s="51">
-        <v>500000</v>
-      </c>
-      <c r="D20" s="52">
-        <f t="shared" ref="D20:D33" si="1">SUM(B20-C20)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="51">
-        <v>400000</v>
-      </c>
-      <c r="C21" s="51">
-        <v>400000</v>
-      </c>
-      <c r="D21" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="51">
-        <v>250000</v>
-      </c>
-      <c r="C22" s="51">
-        <v>250000</v>
-      </c>
-      <c r="D22" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="51">
-        <v>200000</v>
-      </c>
-      <c r="C23" s="51">
-        <v>200000</v>
-      </c>
-      <c r="D23" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="51">
-        <v>300000</v>
-      </c>
-      <c r="C24" s="51">
-        <v>300000</v>
-      </c>
-      <c r="D24" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="51">
-        <v>145000</v>
-      </c>
-      <c r="C25" s="51">
-        <v>145000</v>
-      </c>
-      <c r="D25" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="51">
-        <v>35000</v>
-      </c>
-      <c r="C26" s="51">
-        <v>35000</v>
-      </c>
-      <c r="D26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="51">
-        <v>150000</v>
-      </c>
-      <c r="C27" s="51">
-        <v>150000</v>
-      </c>
-      <c r="D27" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="51">
-        <v>500000</v>
-      </c>
-      <c r="C28" s="51">
-        <v>500000</v>
-      </c>
-      <c r="D28" s="68">
-        <f>SUM(B28-C28)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="51">
-        <v>70000</v>
-      </c>
-      <c r="C29" s="51">
-        <v>70000</v>
-      </c>
-      <c r="D29" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="65">
-        <v>100000</v>
-      </c>
-      <c r="C30" s="65">
-        <v>100000</v>
-      </c>
-      <c r="D30" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="51">
-        <v>70000</v>
-      </c>
-      <c r="C31" s="51">
-        <v>50000</v>
-      </c>
-      <c r="D31" s="52">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="51">
-        <v>50000</v>
-      </c>
-      <c r="C32" s="51">
-        <v>50000</v>
-      </c>
-      <c r="D32" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="51">
-        <v>200000</v>
-      </c>
-      <c r="C33" s="51">
-        <v>200000</v>
-      </c>
-      <c r="D33" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="54">
-        <f>SUM(B19:B33)</f>
-        <v>3270000</v>
-      </c>
-      <c r="C34" s="54">
-        <f>SUM(C19:C33)</f>
-        <v>3650000</v>
-      </c>
-      <c r="D34" s="57">
-        <f>SUM(B34-C34)</f>
-        <v>-380000</v>
-      </c>
-      <c r="E34" s="58"/>
-      <c r="H34" s="156"/>
-    </row>
-    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="51">
-        <v>3393488</v>
-      </c>
-      <c r="C35" s="51">
-        <v>3200047</v>
-      </c>
-      <c r="D35" s="51">
-        <f>SUM(B35-C35)</f>
-        <v>193441</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="I35" s="157"/>
-    </row>
-    <row r="36" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="52">
-        <f>SUM(B34,B35)</f>
-        <v>6663488</v>
-      </c>
-      <c r="C36" s="52">
-        <f>SUM(C34,C35)</f>
-        <v>6850047</v>
-      </c>
-      <c r="D36" s="52">
-        <f>SUM(B36-C36)</f>
-        <v>-186559</v>
-      </c>
-      <c r="E36" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-9-</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="62"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17">
-        <f>'P6'!B30</f>
-        <v>522677</v>
-      </c>
-      <c r="C8" s="17">
-        <f>'P6'!C8</f>
-        <v>489903</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" ref="D8:D13" si="0">SUM(B8-C8)</f>
-        <v>32774</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="17">
-        <v>250000</v>
-      </c>
-      <c r="C9" s="17">
-        <f>'P6'!C9</f>
-        <v>250000</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="17">
-        <v>200000</v>
-      </c>
-      <c r="C10" s="17">
-        <f>'P6'!C10</f>
-        <v>200000</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <f>'P6'!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <f>'P6'!C12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="49"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="60"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="20">
-        <f>SUM(B8:B12)</f>
-        <v>972677</v>
-      </c>
-      <c r="C14" s="20">
-        <f>SUM(C8:C13)</f>
-        <v>939903</v>
-      </c>
-      <c r="D14" s="20">
-        <f>SUM(D8:D13)</f>
-        <v>32774</v>
-      </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="17">
-        <v>180000</v>
-      </c>
-      <c r="C21" s="17">
-        <f>'P6'!C21</f>
-        <v>180000</v>
-      </c>
-      <c r="D21" s="18">
-        <f t="shared" ref="D21:D27" si="1">SUM(B21-C21)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="17">
-        <v>50000</v>
-      </c>
-      <c r="C22" s="17">
-        <f>'P6'!C22</f>
-        <v>50000</v>
-      </c>
-      <c r="D22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="17">
-        <v>30000</v>
-      </c>
-      <c r="C23" s="17">
-        <f>'P6'!C23</f>
-        <v>30000</v>
-      </c>
-      <c r="D23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="17">
-        <v>40000</v>
-      </c>
-      <c r="C24" s="17">
-        <f>'P6'!C24</f>
-        <v>40000</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="17">
-        <v>30000</v>
-      </c>
-      <c r="C25" s="17">
-        <f>'P6'!C25</f>
-        <v>30000</v>
-      </c>
-      <c r="D25" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="48"/>
-    </row>
-    <row r="26" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="17">
-        <v>50000</v>
-      </c>
-      <c r="C26" s="17">
-        <f>'P6'!C26</f>
-        <v>50000</v>
-      </c>
-      <c r="D26" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="49"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="17">
-        <v>10000</v>
-      </c>
-      <c r="C27" s="17">
-        <f>'P6'!C27</f>
-        <v>10000</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="20">
-        <f>SUM(B21:B27)</f>
-        <v>390000</v>
-      </c>
-      <c r="C29" s="20">
-        <f>SUM(C21:C27)</f>
-        <v>390000</v>
-      </c>
-      <c r="D29" s="20">
-        <f>SUM(D21:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="17">
-        <v>550906</v>
-      </c>
-      <c r="C30" s="17">
-        <f>C8</f>
-        <v>489903</v>
-      </c>
-      <c r="D30" s="18">
-        <f>SUM(B30-C30)</f>
-        <v>61003</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="18">
-        <f>SUM(B29+B30)</f>
-        <v>940906</v>
-      </c>
-      <c r="C31" s="18">
-        <f>SUM(C29+C30)</f>
-        <v>879903</v>
-      </c>
-      <c r="D31" s="18">
-        <f>SUM(D29+D30)</f>
-        <v>61003</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-10-</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7581,13 +6462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
+      <c r="A1" s="156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
       <c r="F1" s="84"/>
       <c r="G1" s="94">
         <v>1.1499999999999999</v>
@@ -7628,16 +6509,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="166" t="s">
-        <v>321</v>
+        <v>277</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>274</v>
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="92" t="s">
@@ -7652,16 +6533,16 @@
         <v>145</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="166" t="s">
-        <v>320</v>
+        <v>272</v>
+      </c>
+      <c r="E5" s="135" t="s">
+        <v>273</v>
       </c>
       <c r="F5" s="84"/>
       <c r="G5" s="92" t="s">
@@ -7673,16 +6554,16 @@
         <v>147</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C6" s="102" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="198" t="s">
-        <v>280</v>
+        <v>232</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>233</v>
       </c>
       <c r="F6" s="84"/>
       <c r="G6" s="91" t="s">
@@ -7694,16 +6575,16 @@
         <v>143</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>128</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="199" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>172</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="89"/>
@@ -7713,16 +6594,16 @@
         <v>143</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="200" t="s">
-        <v>194</v>
+        <v>181</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>182</v>
       </c>
       <c r="F8" s="84"/>
       <c r="G8" s="89"/>
@@ -7732,16 +6613,16 @@
         <v>142</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C9" s="110" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="89"/>
@@ -7751,16 +6632,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="C10" s="110" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="87" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="89"/>
@@ -7770,13 +6651,13 @@
         <v>139</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="E11" s="113"/>
       <c r="F11" s="84"/>
@@ -7787,13 +6668,13 @@
         <v>138</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="C12" s="110" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="E12" s="113"/>
       <c r="F12" s="84"/>
@@ -7803,31 +6684,31 @@
         <v>136</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E13" s="113" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="F13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="E14" s="113"/>
       <c r="F14" s="84"/>
@@ -7837,16 +6718,16 @@
         <v>135</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="E15" s="113" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="F15" s="84"/>
     </row>
@@ -7855,34 +6736,34 @@
         <v>134</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C16" s="110" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="E16" s="113" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="F16" s="84"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="101" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C17" s="110" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>327</v>
-      </c>
-      <c r="E17" s="200" t="s">
-        <v>326</v>
+        <v>280</v>
+      </c>
+      <c r="E17" s="138" t="s">
+        <v>279</v>
       </c>
       <c r="F17" s="84"/>
     </row>
@@ -7891,16 +6772,16 @@
         <v>133</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C18" s="110" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="E18" s="113" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="F18" s="84"/>
     </row>
@@ -7909,16 +6790,16 @@
         <v>131</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="C19" s="110" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="E19" s="113" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="F19" s="84"/>
     </row>
@@ -7927,23 +6808,23 @@
         <v>130</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C20" s="110" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="E20" s="113"/>
       <c r="F20" s="84"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="160" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="102" t="s">
         <v>128</v>
@@ -7952,14 +6833,14 @@
         <v>95</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="197"/>
+      <c r="A22" s="161"/>
       <c r="B22" s="86" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C22" s="102" t="s">
         <v>132</v>
@@ -7968,7 +6849,7 @@
         <v>112</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F22" s="84"/>
       <c r="I22" s="103"/>
@@ -7977,28 +6858,28 @@
       <c r="A23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="139" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="140" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="141" t="s">
+      <c r="B23" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="201" t="s">
-        <v>162</v>
-      </c>
       <c r="F23" s="84"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="195"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
       <c r="F24" s="84"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8024,57 +6905,57 @@
         <v>121</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="C26" s="110" t="s">
         <v>114</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="E26" s="113" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="155"/>
+      <c r="G26" s="131"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="101" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C27" s="102" t="s">
         <v>109</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="E27" s="103" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="155"/>
+      <c r="G27" s="131"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="101" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C28" s="102" t="s">
         <v>128</v>
       </c>
       <c r="D28" s="86" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="155"/>
+      <c r="G28" s="131"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="105" t="s">
@@ -8092,18 +6973,18 @@
       <c r="E29" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="138"/>
-      <c r="G29" s="155"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="131"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="190" t="s">
-        <v>179</v>
+      <c r="A30" s="154" t="s">
+        <v>171</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="D30" s="86" t="s">
         <v>116</v>
@@ -8112,10 +6993,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="84"/>
-      <c r="G30" s="155"/>
+      <c r="G30" s="131"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="190"/>
+      <c r="A31" s="154"/>
       <c r="B31" s="86" t="s">
         <v>100</v>
       </c>
@@ -8131,9 +7012,9 @@
       <c r="F31" s="84"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="190"/>
+      <c r="A32" s="154"/>
       <c r="B32" s="86" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C32" s="102" t="s">
         <v>132</v>
@@ -8142,25 +7023,25 @@
         <v>112</v>
       </c>
       <c r="E32" s="103" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F32" s="84"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="202" t="s">
-        <v>343</v>
+      <c r="A33" s="140" t="s">
+        <v>293</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C33" s="102" t="s">
         <v>103</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="166" t="s">
-        <v>280</v>
+        <v>232</v>
+      </c>
+      <c r="E33" s="136" t="s">
+        <v>233</v>
       </c>
       <c r="F33" s="84"/>
     </row>
@@ -8169,7 +7050,7 @@
         <v>113</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C34" s="110" t="s">
         <v>132</v>
@@ -8178,12 +7059,12 @@
         <v>112</v>
       </c>
       <c r="E34" s="113" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F34" s="84"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="128" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="86" t="s">
@@ -8201,33 +7082,33 @@
       <c r="F35" s="84"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="153" t="s">
-        <v>333</v>
-      </c>
-      <c r="B36" s="154" t="s">
-        <v>334</v>
+      <c r="A36" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="130" t="s">
+        <v>286</v>
       </c>
       <c r="C36" s="102" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E36" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="190" t="s">
+      <c r="A37" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="191"/>
-      <c r="C37" s="186" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="186"/>
-      <c r="E37" s="187"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="151"/>
       <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8235,11 +7116,11 @@
         <v>105</v>
       </c>
       <c r="B38" s="107"/>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="189"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="153"/>
       <c r="F38" s="84"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8282,11 +7163,11 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-11-</oddFooter>
+&amp;"ＭＳ Ｐ明朝,標準"-9-</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8295,8 +7176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8323,7 +7204,7 @@
     <row r="11" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
     <row r="12" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="2:3" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
@@ -8343,25 +7224,25 @@
     <row r="19" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
     <row r="20" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
     <row r="22" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
     <row r="26" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15"/>
@@ -8408,10 +7289,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8430,637 +7311,616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="A1" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="146" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="160" t="s">
+      <c r="F3" s="134" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="162" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="162" t="s">
+      <c r="B4" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="166" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="166"/>
+      <c r="B6" s="163" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="165">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="166"/>
+      <c r="B7" s="163" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="168" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F8" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="169"/>
+      <c r="B9" s="163" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="168" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="165">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="170"/>
+      <c r="B11" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="165">
+        <v>0.4375</v>
+      </c>
+      <c r="F11" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="170"/>
+      <c r="B12" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="165">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="170"/>
+      <c r="B13" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="165">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="169"/>
+      <c r="B14" s="163" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="167" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="163" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="165">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F15" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="170"/>
+      <c r="B16" s="163" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F16" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="170"/>
+      <c r="B17" s="163" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="167" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="165">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F17" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="170"/>
+      <c r="B18" s="163" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="167" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F18" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="170"/>
+      <c r="B19" s="163" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="165">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F19" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="169"/>
+      <c r="B20" s="163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="164" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="165">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F20" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="163" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="167" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21" s="162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="171"/>
+      <c r="B22" s="163" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="164" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F22" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F23" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="168" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="163" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="164">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F4" s="165" t="s">
+      <c r="B24" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="165">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F24" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="170"/>
+      <c r="B25" s="163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="169" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="121">
+      <c r="D25" s="164" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="165">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F25" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="169"/>
+      <c r="B26" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="170"/>
-      <c r="B6" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="122" t="s">
+      <c r="D26" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="165">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="98"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F27" s="163" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="98"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="170"/>
+      <c r="B28" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="167" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F28" s="163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="169"/>
+      <c r="B29" s="163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="164" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="165">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F29" s="163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="163" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="143" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="124">
-        <v>0.625</v>
-      </c>
-      <c r="F6" s="125" t="s">
+      <c r="B30" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="171"/>
-      <c r="B7" s="126" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="145" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="128">
-        <v>0.375</v>
-      </c>
-      <c r="F7" s="129" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="172" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="119" t="s">
+      <c r="D30" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="165">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F30" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="144" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="121">
+      <c r="C31" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="165">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F31" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="163" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="173"/>
-      <c r="B9" s="122" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="143" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="124">
+      <c r="D32" s="164" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="165">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F9" s="125" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="174"/>
-      <c r="B10" s="126" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="127" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="128">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="172" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="120" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="121">
-        <v>0.375</v>
-      </c>
-      <c r="F11" s="142" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="173"/>
-      <c r="B12" s="122" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="143" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="124">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F12" s="125" t="s">
+      <c r="F32" s="163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="169"/>
+      <c r="B33" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="163" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="173"/>
-      <c r="B13" s="122" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="124">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="174"/>
-      <c r="B14" s="126" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="128">
-        <v>0.4375</v>
-      </c>
-      <c r="F14" s="129" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="172" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="144" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="121">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F15" s="142" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="173"/>
-      <c r="B16" s="122" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="143" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="124">
+      <c r="D33" s="164" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="165">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F16" s="125" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="174"/>
-      <c r="B17" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="128">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F17" s="129" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="158" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="146" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="148">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F18" s="160" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="175" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="150" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="121">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F19" s="151" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="176"/>
-      <c r="B20" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="124">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F20" s="131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="176"/>
-      <c r="B21" s="122" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="124">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F21" s="131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="177"/>
-      <c r="B22" s="126" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="128">
-        <v>0.25</v>
-      </c>
-      <c r="F22" s="132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="118" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="146" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="147" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="148">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F23" s="149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="175" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" s="121">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F24" s="130" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="176"/>
-      <c r="B25" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="122" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="124">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F25" s="131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="177"/>
-      <c r="B26" s="126" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="128">
-        <v>0.375</v>
-      </c>
-      <c r="F26" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="98"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="175" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="119" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="120" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="121">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F27" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="98"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="176"/>
-      <c r="B28" s="122" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="123" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="124">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F28" s="131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="176"/>
-      <c r="B29" s="122" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="124">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F29" s="131" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="177"/>
-      <c r="B30" s="126" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="128">
-        <v>0.625</v>
-      </c>
-      <c r="F30" s="132" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="118" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" s="146" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="147" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="148">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F31" s="149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="146" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="147" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="148">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F32" s="149" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="119" t="s">
-        <v>248</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="121">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F33" s="130" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="177"/>
-      <c r="B34" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="127" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="128">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F34" s="132" t="s">
-        <v>205</v>
+      <c r="F33" s="163" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A3:C3"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" firstPageNumber="2" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" firstPageNumber="2" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
 &amp;"ＭＳ Ｐ明朝,標準"-2-</oddFooter>
@@ -9069,66 +7929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="9" style="98"/>
-    <col min="4" max="16384" width="9" style="100"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="2" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐ明朝,標準"-3-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="9" style="167"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C-4-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9141,13 +7949,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="A1" s="144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -9165,7 +7973,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -9182,7 +7990,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -9272,7 +8080,7 @@
         <v>216975</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9299,7 +8107,7 @@
         <v>-387213</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="J14" s="156"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -9324,7 +8132,7 @@
       <c r="E16" s="17">
         <v>671411</v>
       </c>
-      <c r="J16" s="156"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -9435,7 +8243,7 @@
         <v>-500000</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -9469,7 +8277,7 @@
         <v>-250000</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -9487,7 +8295,7 @@
         <v>-110857</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -9537,12 +8345,12 @@
         <v>282017</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B34" s="17">
         <v>0</v>
@@ -9558,7 +8366,7 @@
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="44" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B35" s="17">
         <v>478760</v>
@@ -9587,7 +8395,7 @@
         <v>99860</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -9715,18 +8523,18 @@
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-5-</oddFooter>
+&amp;"ＭＳ Ｐ明朝,標準"-3-</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9737,13 +8545,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
+      <c r="A1" s="144" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -9760,7 +8568,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -9777,7 +8585,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -9817,7 +8625,7 @@
         <v>-151000</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9835,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -10059,7 +8867,7 @@
         <v>-123770</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="I29" s="156"/>
+      <c r="I29" s="132"/>
     </row>
     <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
@@ -10109,18 +8917,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-6-</oddFooter>
+&amp;"ＭＳ Ｐ明朝,標準"-4-</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10130,12 +8938,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="A1" s="144" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D3" s="7"/>
@@ -10164,11 +8972,11 @@
         <v>66</v>
       </c>
       <c r="B6" s="29">
-        <f>'P5'!B14</f>
+        <f>'P3'!B14</f>
         <v>6321275</v>
       </c>
       <c r="C6" s="29">
-        <f>'P5'!B41</f>
+        <f>'P3'!B41</f>
         <v>2474602</v>
       </c>
       <c r="D6" s="30">
@@ -10181,11 +8989,11 @@
         <v>67</v>
       </c>
       <c r="B7" s="29">
-        <f>'P6'!B14</f>
+        <f>'P4'!B14</f>
         <v>788907</v>
       </c>
       <c r="C7" s="29">
-        <f>'P6'!B29</f>
+        <f>'P4'!B29</f>
         <v>266230</v>
       </c>
       <c r="D7" s="79">
@@ -10215,7 +9023,7 @@
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="82">
-        <v>44651</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10296,12 +9104,12 @@
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="180" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="182"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
+      <c r="A29" s="144" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="146"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
@@ -10337,16 +9145,16 @@
         <v>66</v>
       </c>
       <c r="B34" s="32">
-        <f>'P9'!B12</f>
-        <v>6708488</v>
+        <f>'P7'!B12</f>
+        <v>6846673</v>
       </c>
       <c r="C34" s="32">
-        <f>'P9'!B34</f>
+        <f>'P7'!B34</f>
         <v>3270000</v>
       </c>
       <c r="D34" s="32">
         <f>SUM(B34-C34)</f>
-        <v>3438488</v>
+        <v>3576673</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10354,11 +9162,11 @@
         <v>67</v>
       </c>
       <c r="B35" s="32">
-        <f>'P10'!B14</f>
+        <f>'P8'!B14</f>
         <v>972677</v>
       </c>
       <c r="C35" s="32">
-        <f>'P10'!B29</f>
+        <f>'P8'!B29</f>
         <v>390000</v>
       </c>
       <c r="D35" s="32">
@@ -10372,7 +9180,7 @@
       </c>
       <c r="B36" s="45">
         <f>SUM(B34:B35)</f>
-        <v>7681165</v>
+        <v>7819350</v>
       </c>
       <c r="C36" s="45">
         <f>SUM(C34:C35)</f>
@@ -10380,7 +9188,7 @@
       </c>
       <c r="D36" s="45">
         <f>SUM(B36-C36)</f>
-        <v>4021165</v>
+        <v>4159350</v>
       </c>
     </row>
   </sheetData>
@@ -10394,17 +9202,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
-&amp;"ＭＳ Ｐ明朝,標準"-7-</oddFooter>
+&amp;"ＭＳ Ｐ明朝,標準"-5-</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10413,19 +9222,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
+      <c r="A1" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C2" s="95"/>
@@ -10490,13 +9299,13 @@
     </row>
     <row r="15" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="74" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B15" s="74"/>
     </row>
     <row r="16" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B16" s="74"/>
     </row>
@@ -10543,19 +9352,19 @@
       <c r="B25" s="39"/>
     </row>
     <row r="26" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
     </row>
     <row r="27" spans="1:11" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="74" t="s">
@@ -10577,7 +9386,7 @@
     </row>
     <row r="31" spans="1:11" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="74"/>
     </row>
@@ -10738,7 +9547,923 @@
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C
+&amp;"ＭＳ Ｐ明朝,標準"-６-</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="144" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51">
+        <v>3846673</v>
+      </c>
+      <c r="C6" s="51">
+        <v>3708488</v>
+      </c>
+      <c r="D6" s="52">
+        <f t="shared" ref="D6:D12" si="0">SUM(B6-C6)</f>
+        <v>138185</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1400000</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1400000</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1200000</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1200000</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="51">
+        <v>200000</v>
+      </c>
+      <c r="C9" s="51">
+        <v>200000</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="51">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="51">
+        <v>200000</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="54">
+        <f>SUM(B6:B11)</f>
+        <v>6846673</v>
+      </c>
+      <c r="C12" s="54">
+        <f>SUM(C6:C11)</f>
+        <v>6708488</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="0"/>
+        <v>138185</v>
+      </c>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="51">
+        <v>300000</v>
+      </c>
+      <c r="C19" s="17">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="52">
+        <f>SUM(B19-C19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="51">
+        <v>500000</v>
+      </c>
+      <c r="C20" s="17">
+        <v>500000</v>
+      </c>
+      <c r="D20" s="52">
+        <f t="shared" ref="D20:D33" si="1">SUM(B20-C20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="51">
+        <v>400000</v>
+      </c>
+      <c r="C21" s="17">
+        <v>400000</v>
+      </c>
+      <c r="D21" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="51">
+        <v>250000</v>
+      </c>
+      <c r="C22" s="17">
+        <v>250000</v>
+      </c>
+      <c r="D22" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="51">
+        <v>200000</v>
+      </c>
+      <c r="C23" s="17">
+        <v>200000</v>
+      </c>
+      <c r="D23" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="51">
+        <v>300000</v>
+      </c>
+      <c r="C24" s="17">
+        <v>300000</v>
+      </c>
+      <c r="D24" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="51">
+        <v>145000</v>
+      </c>
+      <c r="C25" s="17">
+        <v>145000</v>
+      </c>
+      <c r="D25" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="51">
+        <v>35000</v>
+      </c>
+      <c r="C26" s="17">
+        <v>35000</v>
+      </c>
+      <c r="D26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="51">
+        <v>150000</v>
+      </c>
+      <c r="C27" s="17">
+        <v>150000</v>
+      </c>
+      <c r="D27" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="51">
+        <v>500000</v>
+      </c>
+      <c r="C28" s="71">
+        <v>500000</v>
+      </c>
+      <c r="D28" s="68">
+        <f>SUM(B28-C28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="51">
+        <v>70000</v>
+      </c>
+      <c r="C29" s="71">
+        <v>70000</v>
+      </c>
+      <c r="D29" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="65">
+        <v>100000</v>
+      </c>
+      <c r="C30" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D30" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="51">
+        <v>70000</v>
+      </c>
+      <c r="C31" s="17">
+        <v>70000</v>
+      </c>
+      <c r="D31" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="51">
+        <v>50000</v>
+      </c>
+      <c r="C32" s="17">
+        <v>50000</v>
+      </c>
+      <c r="D32" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="51">
+        <v>200000</v>
+      </c>
+      <c r="C33" s="17">
+        <v>200000</v>
+      </c>
+      <c r="D33" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="54">
+        <f>SUM(B19:B33)</f>
+        <v>3270000</v>
+      </c>
+      <c r="C34" s="54">
+        <f>SUM(C19:C33)</f>
+        <v>3270000</v>
+      </c>
+      <c r="D34" s="57">
+        <f>SUM(B34-C34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="58"/>
+      <c r="H34" s="132"/>
+    </row>
+    <row r="35" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="51">
+        <v>3576673</v>
+      </c>
+      <c r="C35" s="51">
+        <v>3200047</v>
+      </c>
+      <c r="D35" s="51">
+        <f>SUM(B35-C35)</f>
+        <v>376626</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="I35" s="133"/>
+    </row>
+    <row r="36" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="52">
+        <f>SUM(B34,B35)</f>
+        <v>6846673</v>
+      </c>
+      <c r="C36" s="52">
+        <f>SUM(C34,C35)</f>
+        <v>6470047</v>
+      </c>
+      <c r="D36" s="52">
+        <f>SUM(B36-C36)</f>
+        <v>376626</v>
+      </c>
+      <c r="E36" s="59"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="133"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C
+&amp;"ＭＳ Ｐ明朝,標準"-7-</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17">
+        <f>'P4'!B30</f>
+        <v>522677</v>
+      </c>
+      <c r="C8" s="17">
+        <f>'P4'!C8</f>
+        <v>489903</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" ref="D8:D13" si="0">SUM(B8-C8)</f>
+        <v>32774</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="17">
+        <v>250000</v>
+      </c>
+      <c r="C9" s="17">
+        <f>'P4'!C9</f>
+        <v>250000</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="17">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="17">
+        <f>'P4'!C10</f>
+        <v>200000</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <f>'P4'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <f>'P4'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="20">
+        <f>SUM(B8:B12)</f>
+        <v>972677</v>
+      </c>
+      <c r="C14" s="20">
+        <f>SUM(C8:C13)</f>
+        <v>939903</v>
+      </c>
+      <c r="D14" s="20">
+        <f>SUM(D8:D13)</f>
+        <v>32774</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="17">
+        <v>180000</v>
+      </c>
+      <c r="C21" s="17">
+        <f>'P4'!C21</f>
+        <v>180000</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" ref="D21:D27" si="1">SUM(B21-C21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="17">
+        <v>50000</v>
+      </c>
+      <c r="C22" s="17">
+        <f>'P4'!C22</f>
+        <v>50000</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C23" s="17">
+        <f>'P4'!C23</f>
+        <v>30000</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17">
+        <v>40000</v>
+      </c>
+      <c r="C24" s="17">
+        <f>'P4'!C24</f>
+        <v>40000</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C25" s="17">
+        <f>'P4'!C25</f>
+        <v>30000</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17">
+        <v>50000</v>
+      </c>
+      <c r="C26" s="17">
+        <f>'P4'!C26</f>
+        <v>50000</v>
+      </c>
+      <c r="D26" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="17">
+        <f>'P4'!C27</f>
+        <v>10000</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="20">
+        <f>SUM(B21:B27)</f>
+        <v>390000</v>
+      </c>
+      <c r="C29" s="20">
+        <f>SUM(C21:C27)</f>
+        <v>390000</v>
+      </c>
+      <c r="D29" s="20">
+        <f>SUM(D21:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="17">
+        <v>582677</v>
+      </c>
+      <c r="C30" s="17">
+        <f>C8</f>
+        <v>489903</v>
+      </c>
+      <c r="D30" s="18">
+        <f>SUM(B30-C30)</f>
+        <v>92774</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="18">
+        <f>SUM(B29+B30)</f>
+        <v>972677</v>
+      </c>
+      <c r="C31" s="18">
+        <f>SUM(C29+C30)</f>
+        <v>879903</v>
+      </c>
+      <c r="D31" s="18">
+        <f>SUM(D29+D30)</f>
+        <v>92774</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="75"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="133"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C
 &amp;"ＭＳ Ｐ明朝,標準"-8-</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>